--- a/proefexamen map/burndown_Verkiezingen.xlsx
+++ b/proefexamen map/burndown_Verkiezingen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proefexamen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proefexamen\proefexamen map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F472B-2EB0-4763-A2B9-FC01DBE8C354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA1A39-58FE-48C8-934A-055E0C474C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
@@ -2684,6 +2684,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2932,16 +2941,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2958,12 +2966,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/proefexamen map/burndown_Verkiezingen.xlsx
+++ b/proefexamen map/burndown_Verkiezingen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proefexamen\proefexamen map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA1A39-58FE-48C8-934A-055E0C474C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB2990-3F19-4441-A70D-3490817DAC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
-    <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="3" r:id="rId1"/>
+    <sheet name="BurndownChart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Taak</t>
   </si>
@@ -89,33 +90,6 @@
     <t>US 2</t>
   </si>
   <si>
-    <t>US 3</t>
-  </si>
-  <si>
-    <t>US 4</t>
-  </si>
-  <si>
-    <t>US 5</t>
-  </si>
-  <si>
-    <t>US 6</t>
-  </si>
-  <si>
-    <t>US 7</t>
-  </si>
-  <si>
-    <t>US 8</t>
-  </si>
-  <si>
-    <t>US 9</t>
-  </si>
-  <si>
-    <t>US 10</t>
-  </si>
-  <si>
-    <t>US 11</t>
-  </si>
-  <si>
     <t>US 12</t>
   </si>
   <si>
@@ -174,6 +148,84 @@
   </si>
   <si>
     <t>wireframe insert klant</t>
+  </si>
+  <si>
+    <t>US 4/ inlog systeem</t>
+  </si>
+  <si>
+    <t>US 9/ stemfunctie</t>
+  </si>
+  <si>
+    <t>US 10/ uitnodiging versturen.</t>
+  </si>
+  <si>
+    <t>verkiesbare kandidaten</t>
+  </si>
+  <si>
+    <t>politieke partijen</t>
+  </si>
+  <si>
+    <t>verkiezing soorten</t>
+  </si>
+  <si>
+    <t>koppeling partij aan kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>volgorde partij</t>
+  </si>
+  <si>
+    <t>aantal in %</t>
+  </si>
+  <si>
+    <t>aantal</t>
+  </si>
+  <si>
+    <t>ministerie goedkeuring</t>
+  </si>
+  <si>
+    <t>1 stem per persoon</t>
+  </si>
+  <si>
+    <t>email sturen.</t>
+  </si>
+  <si>
+    <t>US 5/ aanmaken verkiezingen</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>dag van verkiezing</t>
+  </si>
+  <si>
+    <t>per partij informatie</t>
+  </si>
+  <si>
+    <t>US 7/ uitslag verkiezingen</t>
+  </si>
+  <si>
+    <t>inloggen</t>
+  </si>
+  <si>
+    <t>uitloggen</t>
+  </si>
+  <si>
+    <t>ww vergeten</t>
+  </si>
+  <si>
+    <t>US 3/ Registratie partij</t>
+  </si>
+  <si>
+    <t>US 11/ informatie</t>
+  </si>
+  <si>
+    <t>aan mensen gestemt</t>
+  </si>
+  <si>
+    <t>wireframes</t>
   </si>
 </sst>
 </file>
@@ -215,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -343,11 +395,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -384,6 +449,12 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -499,7 +570,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$41</c:f>
+              <c:f>BurndownChart!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -588,36 +659,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$41:$J$41</c:f>
+              <c:f>BurndownChart!$B$55:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,7 +705,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$42</c:f>
+              <c:f>BurndownChart!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -723,33 +794,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$42:$J$42</c:f>
+              <c:f>BurndownChart!$B$56:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>48</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1558,7 +1629,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>44449</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1903,11 +1974,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76D763F-6249-41DD-A5B4-10EB6B0CB1A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1917,37 +2000,37 @@
     <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1976,10 +2059,10 @@
         <v>11</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
@@ -1987,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1997,15 +2080,15 @@
       <c r="I3" s="2"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2015,7 +2098,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
@@ -2033,7 +2116,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
@@ -2051,7 +2134,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
@@ -2065,16 +2148,16 @@
       <c r="I7" s="2"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2083,16 +2166,16 @@
       <c r="I8" s="2"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2101,16 +2184,16 @@
       <c r="I9" s="2"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2119,7 +2202,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -2133,9 +2216,9 @@
       <c r="I11" s="2"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2144,16 +2227,16 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -2162,16 +2245,16 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -2183,59 +2266,51 @@
       <c r="I14" s="2"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>19</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -2247,29 +2322,23 @@
       <c r="I18" s="2"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2280,9 +2349,9 @@
       <c r="I20" s="2"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2290,16 +2359,20 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -2311,26 +2384,22 @@
       <c r="I22" s="2"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -2338,48 +2407,46 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>32</v>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>22</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2389,90 +2456,84 @@
       <c r="I27" s="2"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>25</v>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>26</v>
+      <c r="A33" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2480,7 +2541,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -2488,46 +2549,45 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="1"/>
+      <c r="A35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="17"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -2537,141 +2597,339 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="17" t="s">
-        <v>32</v>
-      </c>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
       <c r="J38" s="17"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="1"/>
+      <c r="A39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="17"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="6">
-        <f>SUM(B3:B40)</f>
-        <v>48</v>
-      </c>
-      <c r="C41" s="7">
-        <f>B$41-SUM(C3:C40)</f>
+      <c r="B55" s="6">
+        <f>SUM(B3:B54)</f>
         <v>44</v>
       </c>
-      <c r="D41" s="7">
-        <f>C$41-SUM(D3:D40)</f>
+      <c r="C55" s="7">
+        <f>B$55-SUM(C3:C54)</f>
+        <v>40</v>
+      </c>
+      <c r="D55" s="7">
+        <f>C$55-SUM(D3:D54)</f>
+        <v>40</v>
+      </c>
+      <c r="E55" s="7">
+        <f>D$55-SUM(E3:E54)</f>
+        <v>40</v>
+      </c>
+      <c r="F55" s="7">
+        <f>E$55-SUM(F3:F54)</f>
+        <v>40</v>
+      </c>
+      <c r="G55" s="7">
+        <f>F$55-SUM(G3:G54)</f>
+        <v>40</v>
+      </c>
+      <c r="H55" s="7">
+        <f>F$55-SUM(H3:H54)</f>
+        <v>40</v>
+      </c>
+      <c r="I55" s="7">
+        <f>G$55-SUM(I3:I54)</f>
+        <v>40</v>
+      </c>
+      <c r="J55" s="8">
+        <f>I$55-SUM(J3:J54)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="10">
+        <f>B55</f>
         <v>44</v>
       </c>
-      <c r="E41" s="7">
-        <f>D$41-SUM(E3:E40)</f>
-        <v>44</v>
-      </c>
-      <c r="F41" s="7">
-        <f>E$41-SUM(F3:F40)</f>
-        <v>44</v>
-      </c>
-      <c r="G41" s="7">
-        <f>F$41-SUM(G3:G40)</f>
-        <v>44</v>
-      </c>
-      <c r="H41" s="7">
-        <f>F$41-SUM(H3:H40)</f>
-        <v>44</v>
-      </c>
-      <c r="I41" s="7">
-        <f>G$41-SUM(I3:I40)</f>
-        <v>44</v>
-      </c>
-      <c r="J41" s="8">
-        <f>I$41-SUM(J3:J40)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="10">
-        <f>B41</f>
-        <v>48</v>
-      </c>
-      <c r="C42" s="11">
-        <f t="shared" ref="C42:J42" si="0">B$42-$B$42/COUNTA($C$1:$J$1)</f>
-        <v>42</v>
-      </c>
-      <c r="D42" s="11">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E42" s="11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F42" s="11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G42" s="11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H42" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J42" s="11">
-        <f t="shared" si="0"/>
+      <c r="C56" s="11">
+        <f>B$56-$B$56/COUNTA($C$1:$J$1)</f>
+        <v>38.5</v>
+      </c>
+      <c r="D56" s="11">
+        <f>C$56-$B$56/COUNTA($C$1:$J$1)</f>
+        <v>33</v>
+      </c>
+      <c r="E56" s="11">
+        <f>D$56-$B$56/COUNTA($C$1:$J$1)</f>
+        <v>27.5</v>
+      </c>
+      <c r="F56" s="11">
+        <f>E$56-$B$56/COUNTA($C$1:$J$1)</f>
+        <v>22</v>
+      </c>
+      <c r="G56" s="11">
+        <f>F$56-$B$56/COUNTA($C$1:$J$1)</f>
+        <v>16.5</v>
+      </c>
+      <c r="H56" s="11">
+        <f>G$56-$B$56/COUNTA($C$1:$J$1)</f>
+        <v>11</v>
+      </c>
+      <c r="I56" s="11">
+        <f>H$56-$B$56/COUNTA($C$1:$J$1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="J56" s="11">
+        <f>I$56-$B$56/COUNTA($C$1:$J$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2684,15 +2942,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2941,15 +3190,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2966,4 +3216,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/proefexamen map/burndown_Verkiezingen.xlsx
+++ b/proefexamen map/burndown_Verkiezingen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proefexamen\proefexamen map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71a9e8f59a56d173/文档/GitHub/Proefexamen/proefexamen map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB2990-3F19-4441-A70D-3490817DAC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{D6EB2990-3F19-4441-A70D-3490817DAC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14363B49-F87A-4792-BAC8-AC66CDBCEC9D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" activeTab="1" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="3" r:id="rId1"/>
@@ -267,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -408,11 +408,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -449,11 +460,18 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +563,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -664,31 +682,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,28 +817,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>44</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.5</c:v>
+                  <c:v>61.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.5</c:v>
+                  <c:v>43.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.5</c:v>
+                  <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -902,7 +920,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542067040"/>
@@ -961,7 +979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542068960"/>
@@ -1013,7 +1031,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1050,7 +1068,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1979,7 +1997,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1990,17 +2008,17 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -2030,7 +2048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
@@ -2080,7 +2098,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -2098,7 +2116,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2134,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
@@ -2134,7 +2152,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
@@ -2148,7 +2166,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
@@ -2166,7 +2184,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
@@ -2184,7 +2202,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
@@ -2202,7 +2220,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -2216,7 +2234,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
         <v>36</v>
       </c>
@@ -2234,7 +2252,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="18" t="s">
         <v>35</v>
       </c>
@@ -2252,7 +2270,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>59</v>
       </c>
@@ -2266,11 +2284,13 @@
       <c r="I14" s="2"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2280,11 +2300,13 @@
       <c r="J15" s="21"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2294,11 +2316,13 @@
       <c r="J16" s="2"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2308,11 +2332,13 @@
       <c r="I17" s="2"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="23">
+        <v>2</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2322,11 +2348,13 @@
       <c r="I18" s="2"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="23">
+        <v>2</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2336,9 +2364,12 @@
       <c r="I19" s="2"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="18" t="s">
         <v>45</v>
+      </c>
+      <c r="B20" s="24">
+        <v>2</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2349,7 +2380,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="18" t="s">
         <v>48</v>
       </c>
@@ -2370,7 +2401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="19" t="s">
         <v>51</v>
       </c>
@@ -2384,11 +2415,13 @@
       <c r="I22" s="2"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2397,7 +2430,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="18" t="s">
         <v>42</v>
       </c>
@@ -2414,11 +2447,13 @@
       <c r="I24" s="2"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2427,11 +2462,13 @@
       <c r="I25" s="2"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2440,7 +2477,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="19" t="s">
         <v>37</v>
       </c>
@@ -2456,11 +2493,13 @@
       <c r="I27" s="2"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2469,7 +2508,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="18" t="s">
         <v>56</v>
       </c>
@@ -2486,11 +2525,13 @@
       <c r="I29" s="2"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2499,11 +2540,13 @@
       <c r="I30" s="2"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2512,7 +2555,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="19" t="s">
         <v>55</v>
       </c>
@@ -2526,11 +2569,13 @@
       <c r="I32" s="2"/>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2539,7 +2584,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
         <v>42</v>
       </c>
@@ -2556,7 +2601,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="18" t="s">
         <v>46</v>
       </c>
@@ -2573,9 +2618,12 @@
       <c r="I35" s="2"/>
       <c r="J35" s="17"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
         <v>47</v>
+      </c>
+      <c r="B36" s="22">
+        <v>2</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2585,7 +2633,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="19" t="s">
         <v>38</v>
       </c>
@@ -2599,11 +2647,13 @@
       <c r="I37" s="2"/>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2611,7 +2661,7 @@
       <c r="H38" s="2"/>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="18" t="s">
         <v>49</v>
       </c>
@@ -2627,7 +2677,7 @@
       <c r="H39" s="2"/>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="19" t="s">
         <v>39</v>
       </c>
@@ -2641,11 +2691,13 @@
       <c r="I40" s="2"/>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2653,7 +2705,7 @@
       <c r="H41" s="2"/>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="18" t="s">
         <v>50</v>
       </c>
@@ -2669,7 +2721,7 @@
       </c>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="19" t="s">
         <v>60</v>
       </c>
@@ -2682,11 +2734,13 @@
       <c r="H43" s="2"/>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2694,7 +2748,7 @@
       <c r="H44" s="2"/>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="18" t="s">
         <v>54</v>
       </c>
@@ -2710,11 +2764,13 @@
       </c>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2722,7 +2778,7 @@
       <c r="H46" s="2"/>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="19" t="s">
         <v>17</v>
       </c>
@@ -2736,7 +2792,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="18" t="s">
         <v>35</v>
       </c>
@@ -2752,7 +2808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="19" t="s">
         <v>18</v>
       </c>
@@ -2766,7 +2822,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="18" t="s">
         <v>35</v>
       </c>
@@ -2783,7 +2839,7 @@
       </c>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="19" t="s">
         <v>19</v>
       </c>
@@ -2799,7 +2855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="18" t="s">
         <v>35</v>
       </c>
@@ -2817,7 +2873,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="19" t="s">
         <v>33</v>
       </c>
@@ -2833,7 +2889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="18" t="s">
         <v>35</v>
       </c>
@@ -2851,85 +2907,85 @@
       <c r="I54" s="2"/>
       <c r="J54" s="17"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="6">
         <f>SUM(B3:B54)</f>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C55" s="7">
         <f>B$55-SUM(C3:C54)</f>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D55" s="7">
         <f>C$55-SUM(D3:D54)</f>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E55" s="7">
         <f>D$55-SUM(E3:E54)</f>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F55" s="7">
         <f>E$55-SUM(F3:F54)</f>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G55" s="7">
         <f>F$55-SUM(G3:G54)</f>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H55" s="7">
         <f>F$55-SUM(H3:H54)</f>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I55" s="7">
         <f>G$55-SUM(I3:I54)</f>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J55" s="8">
         <f>I$55-SUM(J3:J54)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="10">
         <f>B55</f>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C56" s="11">
-        <f>B$56-$B$56/COUNTA($C$1:$J$1)</f>
-        <v>38.5</v>
+        <f t="shared" ref="C56:J56" si="0">B$56-$B$56/COUNTA($C$1:$J$1)</f>
+        <v>61.25</v>
       </c>
       <c r="D56" s="11">
-        <f>C$56-$B$56/COUNTA($C$1:$J$1)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>52.5</v>
       </c>
       <c r="E56" s="11">
-        <f>D$56-$B$56/COUNTA($C$1:$J$1)</f>
-        <v>27.5</v>
+        <f t="shared" si="0"/>
+        <v>43.75</v>
       </c>
       <c r="F56" s="11">
-        <f>E$56-$B$56/COUNTA($C$1:$J$1)</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="G56" s="11">
-        <f>F$56-$B$56/COUNTA($C$1:$J$1)</f>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>26.25</v>
       </c>
       <c r="H56" s="11">
-        <f>G$56-$B$56/COUNTA($C$1:$J$1)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>17.5</v>
       </c>
       <c r="I56" s="11">
-        <f>H$56-$B$56/COUNTA($C$1:$J$1)</f>
-        <v>5.5</v>
+        <f t="shared" si="0"/>
+        <v>8.75</v>
       </c>
       <c r="J56" s="11">
-        <f>I$56-$B$56/COUNTA($C$1:$J$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2942,6 +2998,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -3190,16 +3255,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3216,12 +3280,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/proefexamen map/burndown_Verkiezingen.xlsx
+++ b/proefexamen map/burndown_Verkiezingen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71a9e8f59a56d173/文档/GitHub/Proefexamen/proefexamen map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proefexamen\proefexamen map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{D6EB2990-3F19-4441-A70D-3490817DAC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14363B49-F87A-4792-BAC8-AC66CDBCEC9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EBF71A-03B7-4B93-B621-20931E3ADC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" activeTab="1" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>Taak</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Repository maken</t>
   </si>
   <si>
-    <t>US 1</t>
-  </si>
-  <si>
     <t>US 2</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>activiteit nog invullen</t>
   </si>
   <si>
-    <t>wireframe insert klant</t>
-  </si>
-  <si>
     <t>US 4/ inlog systeem</t>
   </si>
   <si>
@@ -226,6 +220,9 @@
   </si>
   <si>
     <t>wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US 1</t>
   </si>
 </sst>
 </file>
@@ -463,15 +460,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +560,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -588,7 +585,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$55</c:f>
+              <c:f>BurndownChart!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -677,36 +674,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$55:$J$55</c:f>
+              <c:f>BurndownChart!$B$53:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,7 +720,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$56</c:f>
+              <c:f>BurndownChart!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -812,33 +809,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$56:$J$56</c:f>
+              <c:f>BurndownChart!$B$54:$J$54</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>70</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.25</c:v>
+                  <c:v>49.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.5</c:v>
+                  <c:v>42.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.75</c:v>
+                  <c:v>35.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.25</c:v>
+                  <c:v>21.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.5</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.75</c:v>
+                  <c:v>7.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -920,7 +917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542067040"/>
@@ -979,7 +976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542068960"/>
@@ -1031,7 +1028,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1068,7 +1065,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1647,7 +1644,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>44449</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1997,7 +1994,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2005,50 +2002,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -2077,36 +2074,32 @@
         <v>11</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2116,15 +2109,15 @@
       <c r="I4" s="2"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
-        <v>2</v>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2134,9 +2127,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -2152,12 +2145,16 @@
       <c r="I6" s="2"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2166,17 +2163,13 @@
       <c r="I7" s="2"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2184,16 +2177,16 @@
       <c r="I8" s="2"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2202,16 +2195,16 @@
       <c r="I9" s="2"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2220,13 +2213,17 @@
       <c r="I10" s="2"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2234,107 +2231,113 @@
       <c r="I11" s="2"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="B13" s="22">
+        <v>1</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="23">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="22">
         <v>1</v>
       </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="23">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B16" s="22">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="23">
-        <v>1</v>
+      <c r="B17" s="22">
+        <v>2</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" s="23">
         <v>2</v>
@@ -2342,35 +2345,39 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="23">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="24">
-        <v>2</v>
-      </c>
+      <c r="T19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2380,44 +2387,45 @@
       <c r="I20" s="2"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="17"/>
-      <c r="T21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -2425,14 +2433,17 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -2441,45 +2452,48 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A27" s="19" t="s">
-        <v>37</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -2488,27 +2502,32 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>56</v>
       </c>
@@ -2518,474 +2537,456 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A30" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A32" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="1">
+        <v>45</v>
+      </c>
+      <c r="B34" s="21">
         <v>2</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="17"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="22">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I42" s="2"/>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="1"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="2"/>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2</v>
-      </c>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="1">
+        <v>34</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="6">
+        <f>SUM(B4:B52)</f>
+        <v>57</v>
+      </c>
+      <c r="C53" s="7">
+        <f>B$53-SUM(C4:C52)</f>
+        <v>53</v>
+      </c>
+      <c r="D53" s="7">
+        <f>C$53-SUM(D4:D52)</f>
+        <v>53</v>
+      </c>
+      <c r="E53" s="7">
+        <f>D$53-SUM(E4:E52)</f>
+        <v>53</v>
+      </c>
+      <c r="F53" s="7">
+        <f>E$53-SUM(F4:F52)</f>
+        <v>53</v>
+      </c>
+      <c r="G53" s="7">
+        <f>F$53-SUM(G4:G52)</f>
+        <v>53</v>
+      </c>
+      <c r="H53" s="7">
+        <f>F$53-SUM(H4:H52)</f>
+        <v>53</v>
+      </c>
+      <c r="I53" s="7">
+        <f>G$53-SUM(I4:I52)</f>
+        <v>53</v>
+      </c>
+      <c r="J53" s="8">
+        <f>I$53-SUM(J4:J52)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="17"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="6">
-        <f>SUM(B3:B54)</f>
-        <v>70</v>
-      </c>
-      <c r="C55" s="7">
-        <f>B$55-SUM(C3:C54)</f>
-        <v>66</v>
-      </c>
-      <c r="D55" s="7">
-        <f>C$55-SUM(D3:D54)</f>
-        <v>66</v>
-      </c>
-      <c r="E55" s="7">
-        <f>D$55-SUM(E3:E54)</f>
-        <v>66</v>
-      </c>
-      <c r="F55" s="7">
-        <f>E$55-SUM(F3:F54)</f>
-        <v>66</v>
-      </c>
-      <c r="G55" s="7">
-        <f>F$55-SUM(G3:G54)</f>
-        <v>66</v>
-      </c>
-      <c r="H55" s="7">
-        <f>F$55-SUM(H3:H54)</f>
-        <v>66</v>
-      </c>
-      <c r="I55" s="7">
-        <f>G$55-SUM(I3:I54)</f>
-        <v>66</v>
-      </c>
-      <c r="J55" s="8">
-        <f>I$55-SUM(J3:J54)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="10">
-        <f>B55</f>
-        <v>70</v>
-      </c>
-      <c r="C56" s="11">
-        <f t="shared" ref="C56:J56" si="0">B$56-$B$56/COUNTA($C$1:$J$1)</f>
-        <v>61.25</v>
-      </c>
-      <c r="D56" s="11">
-        <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-      <c r="E56" s="11">
-        <f t="shared" si="0"/>
-        <v>43.75</v>
-      </c>
-      <c r="F56" s="11">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G56" s="11">
-        <f t="shared" si="0"/>
-        <v>26.25</v>
-      </c>
-      <c r="H56" s="11">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="I56" s="11">
-        <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="J56" s="11">
-        <f t="shared" si="0"/>
+      <c r="B54" s="10">
+        <f>B53</f>
+        <v>57</v>
+      </c>
+      <c r="C54" s="11">
+        <f>B$54-$B$54/COUNTA($C$1:$J$1)</f>
+        <v>49.875</v>
+      </c>
+      <c r="D54" s="11">
+        <f>C$54-$B$54/COUNTA($C$1:$J$1)</f>
+        <v>42.75</v>
+      </c>
+      <c r="E54" s="11">
+        <f>D$54-$B$54/COUNTA($C$1:$J$1)</f>
+        <v>35.625</v>
+      </c>
+      <c r="F54" s="11">
+        <f>E$54-$B$54/COUNTA($C$1:$J$1)</f>
+        <v>28.5</v>
+      </c>
+      <c r="G54" s="11">
+        <f>F$54-$B$54/COUNTA($C$1:$J$1)</f>
+        <v>21.375</v>
+      </c>
+      <c r="H54" s="11">
+        <f>G$54-$B$54/COUNTA($C$1:$J$1)</f>
+        <v>14.25</v>
+      </c>
+      <c r="I54" s="11">
+        <f>H$54-$B$54/COUNTA($C$1:$J$1)</f>
+        <v>7.125</v>
+      </c>
+      <c r="J54" s="11">
+        <f>I$54-$B$54/COUNTA($C$1:$J$1)</f>
         <v>0</v>
       </c>
     </row>
